--- a/NformTester/NformTester/Keywordscripts/TST2799_VerifyMaintenanceModeCanBeSetted.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST2799_VerifyMaintenanceModeCanBeSetted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7668" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7667" uniqueCount="877">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3764,70 +3764,159 @@
     <t>"test-writefile"</t>
   </si>
   <si>
+    <t>"action-one"</t>
+  </si>
+  <si>
+    <t>"Critical"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Create an action.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Input over voltage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyTxtfileValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Actioin will not be performed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The alarm triggered by device. The action correspond to this alarm will be excuted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Edit this action.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"under maintenance"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Set the  device as manual maintenance . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The alarm triggered by device. The action correspond to this alarm will not be excuted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Actioin will be performed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Set the  device as schedule maintenance . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST2799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The alarm triggered by device. The action correspond to this alarm will not be excuted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_alarms_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify the reason. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_alarms_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleClickItem</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;After the end of schedule maintenance, The alarm triggered by device. The action correspond to this alarm will be excuted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TST2799"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"C:\Nform\writefile_result.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"action-one"</t>
-  </si>
-  <si>
-    <t>"Critical"</t>
+    <t>"C:\Nform\writefile_result.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Create an action.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Input over voltage"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyTxtfileValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Actioin will not be performed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The alarm triggered by device. The action correspond to this alarm will be excuted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Edit this action.</t>
+    <t>"C:\Nform\writefile_result.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3835,100 +3924,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">;Set the  device as manual maintenance . </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The alarm triggered by device. The action correspond to this alarm will not be excuted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Actioin will be performed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Set the  device as schedule maintenance . </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TST2799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The alarm triggered by device. The action correspond to this alarm will not be excuted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All_alarms_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify the reason. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All_alarms_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleClickItem</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;After the end of schedule maintenance, The alarm triggered by device. The action correspond to this alarm will be excuted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"TST2799"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92-93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"C:\Nform\writefile_result.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\writefile_result.txt"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>under maintenance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>under maintenance</t>
+    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4159,7 +4159,91 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4914,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5146,9 +5230,7 @@
       <c r="A8" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>872</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5163,22 +5245,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>820</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>842</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="2"/>
@@ -5252,7 +5334,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -5641,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5945,7 +6027,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -6000,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -6026,7 +6108,7 @@
         <v>13</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -6053,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -6080,7 +6162,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -6170,10 +6252,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
@@ -6649,7 +6731,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="5"/>
@@ -6671,15 +6753,19 @@
         <v>822</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="5"/>
+      <c r="H65" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -6694,19 +6780,15 @@
         <v>823</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="F66" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="F66" s="5">
+        <v>5</v>
+      </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I66" s="11">
-        <v>1</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>825</v>
-      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -6718,7 +6800,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="5"/>
@@ -6737,15 +6819,15 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="11"/>
       <c r="H68" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>820</v>
@@ -6763,7 +6845,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -6844,7 +6926,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -6972,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -7058,7 +7140,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="5"/>
@@ -7256,7 +7338,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
@@ -7278,15 +7360,19 @@
         <v>808</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F90" s="5">
-        <v>2</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="5"/>
+      <c r="H90" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -7301,19 +7387,15 @@
         <v>808</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="F91" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="F91" s="5">
+        <v>5</v>
+      </c>
       <c r="G91" s="5"/>
-      <c r="H91" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I91" s="11">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>825</v>
-      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -7325,7 +7407,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="5"/>
@@ -7347,15 +7429,15 @@
         <v>808</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="11"/>
       <c r="H93" s="5" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="J93" s="5" t="b">
         <v>0</v>
@@ -7370,10 +7452,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F94" s="5">
         <v>2</v>
@@ -7392,7 +7474,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="5"/>
@@ -7579,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -7644,7 +7726,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7666,15 +7748,19 @@
         <v>808</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F106" s="5">
-        <v>2</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="5"/>
+      <c r="H106" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I106" s="11">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -7689,19 +7775,15 @@
         <v>808</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="F107" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="F107" s="5">
+        <v>5</v>
+      </c>
       <c r="G107" s="5"/>
-      <c r="H107" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I107" s="11">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>825</v>
-      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -7713,7 +7795,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="5"/>
@@ -7735,15 +7817,15 @@
         <v>808</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="11"/>
       <c r="H109" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="J109" s="5" t="b">
         <v>0</v>
@@ -7761,7 +7843,7 @@
         <v>808</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F110" s="5">
         <v>2</v>
@@ -7780,7 +7862,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -7831,7 +7913,7 @@
         <v>27</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -7852,7 +7934,7 @@
         <v>19</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
@@ -7876,13 +7958,13 @@
         <v>19</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -7897,10 +7979,10 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>864</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>865</v>
       </c>
       <c r="F116" s="5">
         <v>60</v>
@@ -7920,7 +8002,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="5"/>
@@ -7942,15 +8024,19 @@
         <v>808</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F118" s="5">
-        <v>2</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="5"/>
+      <c r="H118" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I118" s="11">
+        <v>1</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -7965,19 +8051,15 @@
         <v>808</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="F119" s="5"/>
+        <v>876</v>
+      </c>
+      <c r="F119" s="5">
+        <v>5</v>
+      </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I119" s="11">
-        <v>1</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>825</v>
-      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -7989,7 +8071,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="5"/>
@@ -8011,15 +8093,15 @@
         <v>808</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="11"/>
       <c r="H121" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J121" s="5" t="b">
         <v>1</v>
@@ -8037,7 +8119,7 @@
         <v>808</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F122" s="5">
         <v>2</v>
@@ -8122,10 +8204,10 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>578</v>
@@ -8134,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8148,10 +8230,10 @@
         <v>126</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>184</v>
@@ -8172,7 +8254,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>585</v>
@@ -8196,10 +8278,10 @@
         <v>128</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>99</v>
@@ -8282,7 +8364,7 @@
         <v>56</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -8322,7 +8404,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>756</v>
@@ -8368,37 +8450,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N134">
-    <cfRule type="cellIs" dxfId="5" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124:N129">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N130:N135">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D118:D119 D122 D112:D116 D110 D106:D107 D96:D104 D94 D90:D91 D82:D88 D70:D78 D57:D63 D12:D29 D33:D35 D9 D65:D66 D47:D53 D124:D125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D90:D91 D122 D112:D116 D110 D118:D119 D96:D104 D94 D124:D125 D82:D88 D70:D78 D57:D63 D12:D29 D33:D35 D9 D65:D66 D47:D53 D106:D107">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67 E69:E92 E110:E120 E94:E108 E122:E135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E135 E2:E67 E69:E92 E110:E120 E94:E108">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G125 G127:G135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127:G135 G2:G125">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F135">
@@ -11986,7 +12068,7 @@
     </row>
     <row r="89" spans="1:40">
       <c r="E89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AN89" t="s">
         <v>476</v>
@@ -18608,7 +18690,7 @@
         <v>6</v>
       </c>
       <c r="CO3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="CP3" t="s">
         <v>57</v>
